--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -62,17 +62,17 @@
     <t>Bestellen componenten begin december (voor de kerstvakantie) + basis functies schrijven (best voor kerstvakantie aangezien de examens)</t>
   </si>
   <si>
-    <t>Fout zoeken</t>
-  </si>
-  <si>
     <t>Ontwerpen pcb + bouwen</t>
+  </si>
+  <si>
+    <t>Fouten zoeken + verbeteren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +80,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +110,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -417,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,59 +460,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
